--- a/S2S_project/Toa_do_LV_sCa.xlsx
+++ b/S2S_project/Toa_do_LV_sCa.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Scripts\S2S_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACE68482-486F-489D-8B46-B4A7B517A5A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA8C460C-DB64-4950-AAD2-2FC918C6CE03}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Toa_do_LV_sCa" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="85">
   <si>
     <t>BAN VE 83</t>
   </si>
@@ -97,9 +97,6 @@
     <t>NHAN HAC A</t>
   </si>
   <si>
-    <t>KG CHAU THANG</t>
-  </si>
-  <si>
     <t>LV 1</t>
   </si>
   <si>
@@ -272,12 +269,18 @@
   </si>
   <si>
     <t>LV 36</t>
+  </si>
+  <si>
+    <t>KG_CHAU THANG</t>
+  </si>
+  <si>
+    <t>CHAU THANG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1084,11 +1087,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C85"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1375,7 +1378,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="B26">
         <v>104.8349991</v>
@@ -1386,7 +1389,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
         <v>104.9499969</v>
@@ -1397,7 +1400,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>105.0289993</v>
@@ -1408,7 +1411,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>105.1969986</v>
@@ -1419,7 +1422,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>105.30400090000001</v>
@@ -1430,7 +1433,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>105.29599760000001</v>
@@ -1441,7 +1444,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>105.2730026</v>
@@ -1452,7 +1455,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>105.38200380000001</v>
@@ -1463,7 +1466,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>105.4800034</v>
@@ -1474,7 +1477,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>105.4830017</v>
@@ -1485,7 +1488,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>105.4250031</v>
@@ -1496,7 +1499,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>105.4690018</v>
@@ -1507,7 +1510,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>105.13500209999999</v>
@@ -1518,7 +1521,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>105.3219986</v>
@@ -1529,7 +1532,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>105.1230011</v>
@@ -1540,7 +1543,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>105.2200012</v>
@@ -1551,7 +1554,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>105.14600369999999</v>
@@ -1562,7 +1565,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>105.29599760000001</v>
@@ -1573,7 +1576,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>105.1050034</v>
@@ -1584,7 +1587,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45">
         <v>105.1200027</v>
@@ -1595,7 +1598,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46">
         <v>105.1920013</v>
@@ -1606,7 +1609,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <v>105.262001</v>
@@ -1617,7 +1620,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48">
         <v>105.32599639999999</v>
@@ -1628,7 +1631,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49">
         <v>105.4039993</v>
@@ -1650,7 +1653,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B51">
         <v>105.1910019</v>
@@ -1661,7 +1664,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B52">
         <v>105.3799973</v>
@@ -1672,7 +1675,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B53">
         <v>105.29499819999999</v>
@@ -1683,7 +1686,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B54">
         <v>105.2549973</v>
@@ -1694,7 +1697,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B55">
         <v>105.322998</v>
@@ -1705,7 +1708,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B56">
         <v>105.36499790000001</v>
@@ -1716,7 +1719,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B57">
         <v>105.41999819999999</v>
@@ -1727,7 +1730,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B58">
         <v>105.3570023</v>
@@ -1738,7 +1741,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B59">
         <v>105.4150009</v>
@@ -1749,7 +1752,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B60">
         <v>105.4609985</v>
@@ -1760,7 +1763,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B61">
         <v>105.61000060000001</v>
@@ -1771,7 +1774,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B62">
         <v>105.50099950000001</v>
@@ -1782,7 +1785,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B63">
         <v>105.7300034</v>
@@ -1793,7 +1796,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B64">
         <v>105.560997</v>
@@ -1804,7 +1807,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B65">
         <v>105.4499969</v>
@@ -1815,7 +1818,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B66">
         <v>105.4189987</v>
@@ -1826,7 +1829,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B67">
         <v>105.25</v>
@@ -1837,7 +1840,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B68">
         <v>105.5419998</v>
@@ -1848,7 +1851,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B69">
         <v>105.5350037</v>
@@ -1859,7 +1862,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B70">
         <v>105.6689987</v>
@@ -1870,7 +1873,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B71">
         <v>105.6200027</v>
@@ -1881,7 +1884,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B72">
         <v>105.57099909999999</v>
@@ -1892,7 +1895,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B73">
         <v>105.6849976</v>
@@ -1903,7 +1906,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B74">
         <v>105.8030014</v>
@@ -1914,7 +1917,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B75">
         <v>105.7890015</v>
@@ -1925,7 +1928,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B76">
         <v>105.65899659999999</v>
@@ -1936,7 +1939,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B77">
         <v>105.875</v>
@@ -1947,7 +1950,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B78">
         <v>105.28700259999999</v>
@@ -1958,7 +1961,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B79">
         <v>105.44599909999999</v>
@@ -1969,7 +1972,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B80">
         <v>105.5220032</v>
@@ -1980,7 +1983,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B81">
         <v>105.40200040000001</v>
@@ -1991,7 +1994,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B82">
         <v>105.0049973</v>
@@ -2002,7 +2005,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B83">
         <v>104.5830002</v>
@@ -2013,7 +2016,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B84">
         <v>105.4250031</v>
@@ -2024,7 +2027,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B85">
         <v>105.33540000000001</v>
@@ -2033,7 +2036,19 @@
         <v>18.812650000000001</v>
       </c>
     </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>105.00355</v>
+      </c>
+      <c r="C86">
+        <v>19.605599999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>